--- a/hr_dr/base/standard/hr_dr_payroll_base/import_template/Outside_service_staff_for_utilities.xlsx
+++ b/hr_dr/base/standard/hr_dr_payroll_base/import_template/Outside_service_staff_for_utilities.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DF12E6-BEAC-43CD-8BAD-FFDB02152FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681DA11F-BDD1-462E-990B-0F510A86820C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="FL" sheetId="3" r:id="rId2"/>
+    <sheet name="JW" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FL!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Y$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hoja2!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">JW!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,8 +33,819 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{A2093644-AAF4-4F56-9B53-F172564C510A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Código sectorial.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{D30F001C-394A-410F-B2A8-D093268CC994}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CTA Transferencia bancaria.
+CHQ Cheque.
+EFE Efectivo.
+undefined Indefinido.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{2907EA51-3E4B-46A0-80D9-01AB98D80324}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+RUC de la empresa a la que pertence el colaborador de servicios externos.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8238BD67-BB11-407A-A45A-33469FED353F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Identificación.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{27A81F4E-3ACF-496A-A21D-56F818FE5B79}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Carnet CONADIS</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6CA2C30A-78FB-428A-87B7-A4849A63D70C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Identificación.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{76D50E77-35A8-41E7-AE67-F9930130076B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Identificación.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{030036A9-AAF0-483C-9434-4384F5FAECAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Masculino</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{DDA0C52D-C277-41FA-B6ED-4354ED3404BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Transferencia bancaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{5331D9F5-D42D-4F07-BE0C-D5CB9236B0EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pago Directo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{88596466-D649-448E-905C-BEFC0F7C3DCB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Padres</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{F2BB13D1-F56D-466C-BB72-5DD680F7F535}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Femenino</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{694EE1D0-9CC0-4C2A-841C-E527A0F9A6B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cheque</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{92325E86-EF7D-4BC4-B018-93EE3C3371DB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Depósito MDT (Para Declaraciones &lt; 2015)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{0F7AE3A1-4DB7-4F98-BE92-68A676BEF40F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Madre</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{03F8C27E-38F0-4C8A-ABA9-51205FDCD5A0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Otro</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{B7178ADC-7FE2-4400-BA11-FE8CF4FCB6D4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Efectivo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{46253DE9-EF9D-476B-B7C7-7E1F2F39F5A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Depósito Empresa (Para Declaraciones &gt;= 2015)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{07B8E0D1-87EC-4F0C-B422-E21B3666212B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Padre</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{F4B4172D-516A-49D9-AFF0-31A6F47B9DBB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indefinido</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{880DCBFE-8EFB-40C1-BAE7-8E2F3F09C1DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Acreditación en Cuenta</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{375786E6-3C97-4903-9324-87BD6CD90B9A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hermanos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{19CD7468-DFA0-409F-B973-2036BA925200}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hermana</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{19A4ECB1-FC5C-43C8-8716-1B45E3430331}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hermano</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{08B0BA38-C2FC-4D2C-B11C-DA0E0400F805}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esposos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{A648075E-A7BB-43A6-BF8A-18448E03701C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esposa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{1ACF60F2-1AF6-4EBA-8426-6AD7C072A023}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esposo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{BD012B3B-586D-472E-99D1-E2D13C4A9B2C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Unión de hechos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{9B38ABB2-050D-42E8-8611-20675B7D213C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hijos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{99D92667-0EC3-48CB-B38E-E125FDFD8DCD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hija</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{02C28189-DB8F-4BFD-B416-4DC8F6278FEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hijo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{8117B966-70DF-4AE9-A653-B27912D37808}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Otro</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
   <si>
     <t>Apellidos y nombres</t>
   </si>
@@ -46,24 +862,6 @@
     <t>Discapacidad</t>
   </si>
   <si>
-    <t>Días trabajados</t>
-  </si>
-  <si>
-    <t>Cargas familiares</t>
-  </si>
-  <si>
-    <t>Retenciones judiciales</t>
-  </si>
-  <si>
-    <t>Tiempo parcial permanente</t>
-  </si>
-  <si>
-    <t>Horas tiempo parcial permanente</t>
-  </si>
-  <si>
-    <t>RUC Empresa</t>
-  </si>
-  <si>
     <t>D13</t>
   </si>
   <si>
@@ -73,74 +871,293 @@
     <t>Salario</t>
   </si>
   <si>
-    <t>Fondos de reserva</t>
-  </si>
-  <si>
     <t>Comisiones</t>
   </si>
   <si>
-    <t>Otros ingresos en efectivo</t>
-  </si>
-  <si>
-    <t>Anticipo de utilidades</t>
-  </si>
-  <si>
-    <t>Modo de pago</t>
+    <t>Ocupación</t>
+  </si>
+  <si>
+    <t>Género</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Fecha de nacimiento</t>
+  </si>
+  <si>
+    <t>Conadis</t>
+  </si>
+  <si>
+    <t>Asegurado</t>
+  </si>
+  <si>
+    <t>Porciento de 
+discapacidad</t>
+  </si>
+  <si>
+    <t>Personal de 
+servicio externo</t>
+  </si>
+  <si>
+    <t>Relación</t>
+  </si>
+  <si>
+    <t>Descripción de 
+la discapacidad</t>
+  </si>
+  <si>
+    <t>Tipo de 
+identificación</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Carga 
+familiar</t>
+  </si>
+  <si>
+    <t>Código de 
+tarjeta</t>
+  </si>
+  <si>
+    <t>Número de 
+proceso judicial</t>
+  </si>
+  <si>
+    <t>NUT</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Beneficiario-Tipo de 
+identificación</t>
+  </si>
+  <si>
+    <t>Beneficiario-
+Identificación</t>
+  </si>
+  <si>
+    <t>Beneficiario-
+Nombre</t>
+  </si>
+  <si>
+    <t>RUC</t>
+  </si>
+  <si>
+    <t>Pasaporte</t>
+  </si>
+  <si>
+    <t>Método de pago</t>
+  </si>
+  <si>
+    <t>Tiempo parcial 
+permanente</t>
+  </si>
+  <si>
+    <t>Cargas 
+familiares</t>
+  </si>
+  <si>
+    <t>Días 
+trabajados</t>
+  </si>
+  <si>
+    <t>Retenciones 
+judiciales</t>
+  </si>
+  <si>
+    <t>Horas tiempo 
+parcial permanente</t>
+  </si>
+  <si>
+    <t>Utilidades 
+año anterior</t>
+  </si>
+  <si>
+    <t>RUC 
+Empresa</t>
+  </si>
+  <si>
+    <t>Fondos de 
+reserva</t>
+  </si>
+  <si>
+    <t>Otros ingresos 
+en efectivo</t>
+  </si>
+  <si>
+    <t>Anticipo de 
+utilidades</t>
+  </si>
+  <si>
+    <t>Modo de pago 
+(Salario digno)</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>siblings</t>
+  </si>
+  <si>
+    <t>sister</t>
+  </si>
+  <si>
+    <t>brother</t>
+  </si>
+  <si>
+    <t>spouses</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cohabitant</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>CTA</t>
+  </si>
+  <si>
+    <t>CHQ</t>
+  </si>
+  <si>
+    <t>EFE</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>Tipo de identificación</t>
   </si>
   <si>
     <t>Modo de pago (Salario digno)</t>
   </si>
   <si>
-    <t>Utilidades año anterior</t>
-  </si>
-  <si>
-    <t>Ocupación</t>
-  </si>
-  <si>
-    <t>Género</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>RP</t>
-  </si>
-  <si>
-    <t>MDT</t>
-  </si>
-  <si>
-    <t>RA</t>
+    <t>Pasaporte extranjero</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ MARRERO DAINOVY</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ MARRERO</t>
+  </si>
+  <si>
+    <t>DAINOVY</t>
+  </si>
+  <si>
+    <t>1756873541</t>
+  </si>
+  <si>
+    <t>LIAM ALEJANDRO RODRIGUEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>MAYRA ALEJANDRA HERNANDEZ PILLAJO</t>
+  </si>
+  <si>
+    <t>1760342327</t>
+  </si>
+  <si>
+    <t>Av. Moromoro OE431 y Av. Rumichaca</t>
+  </si>
+  <si>
+    <t>1722687520</t>
+  </si>
+  <si>
+    <t>0995089036</t>
+  </si>
+  <si>
+    <t>1756873541001</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>Cédula Extranjera</t>
+  </si>
+  <si>
+    <t>Desconocido</t>
+  </si>
+  <si>
+    <t>0101011112042</t>
+  </si>
+  <si>
+    <t>Cédula</t>
+  </si>
+  <si>
+    <t>Sobresueldo / Gratificaciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -148,8 +1165,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,13 +1188,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,10 +1223,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,167 +1635,1037 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:Y100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2"/>
+      <selection pane="bottomLeft" activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="V1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2">
+        <v>360</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2">
+        <v>1800</v>
+      </c>
+      <c r="Q2">
+        <v>450</v>
+      </c>
+      <c r="R2">
+        <v>2000</v>
+      </c>
+      <c r="S2">
+        <v>21600</v>
+      </c>
+      <c r="T2">
+        <v>2300</v>
+      </c>
+      <c r="U2">
+        <v>2000</v>
+      </c>
+      <c r="V2">
+        <v>3000</v>
+      </c>
+      <c r="W2">
+        <v>300</v>
+      </c>
+      <c r="X2">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="2"/>
-      <c r="W100" s="2"/>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="O31" s="8"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="O39" s="8"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="O40" s="8"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="O41" s="8"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="O42" s="8"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="O43" s="8"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="O44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="O45" s="8"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="O46" s="8"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="O47" s="8"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="O48" s="8"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="O49" s="8"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="O50" s="8"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="O51" s="8"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="O52" s="8"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="O53" s="8"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="O54" s="8"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="O55" s="8"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="O56" s="8"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="O57" s="8"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="O58" s="8"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="O59" s="8"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="O60" s="8"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="O61" s="8"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="O62" s="8"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="O63" s="8"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="O64" s="8"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="O65" s="8"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="O66" s="8"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="O67" s="8"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="O68" s="8"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="O69" s="8"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="O70" s="8"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="O71" s="8"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="O72" s="8"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="O73" s="8"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="O74" s="8"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="O75" s="8"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="O76" s="8"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="O77" s="8"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="O78" s="8"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="O79" s="8"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="O80" s="8"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="O81" s="8"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="O82" s="8"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="O83" s="8"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="O84" s="8"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="O85" s="8"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="O86" s="8"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="O87" s="8"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="O88" s="8"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="O89" s="8"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="O90" s="8"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="O91" s="8"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="O92" s="8"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="O93" s="8"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="O94" s="8"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="O95" s="8"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="O96" s="8"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="O97" s="8"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="O98" s="8"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="O99" s="8"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Y1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{025D4687-0611-45DB-AE30-7F7295C32A54}">
           <x14:formula1>
-            <xm:f>Hoja2!$A$1:$A$3</xm:f>
+            <xm:f>Hoja2!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E100</xm:sqref>
+          <xm:sqref>F2:F100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B2AAF10-7FAD-4E83-B0E5-789B36EA1A1E}">
           <x14:formula1>
-            <xm:f>Hoja2!$B$1:$B$2</xm:f>
+            <xm:f>Hoja2!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G100 K2:K100</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3155543F-DABA-4F9A-8E77-053F618BDCD4}">
-          <x14:formula1>
-            <xm:f>Hoja2!$C$1:$C$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>V2:V100</xm:sqref>
+          <xm:sqref>M2:M100 H2:H100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CDC577F6-ED55-476D-9911-ED8C44E5938E}">
           <x14:formula1>
-            <xm:f>Hoja2!$D$1:$D$4</xm:f>
+            <xm:f>Hoja2!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>W2:W100</xm:sqref>
+          <xm:sqref>Y2:Y100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B0AC93FE-B95D-47C1-9F74-9FED4F67267C}">
+          <x14:formula1>
+            <xm:f>Hoja2!$C$2:$C$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{067E0755-65DC-4AF1-B3AC-E4F30B02CDF4}">
+          <x14:formula1>
+            <xm:f>Hoja2!$F$2:$F$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D100</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -735,78 +2674,1732 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7593A6-1E34-4F17-B416-7D8DC82F711C}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1E7AA2-1D8A-4293-86A7-0A84B3029952}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="11">
+        <v>44068</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="11"/>
+      <c r="F3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="11"/>
+      <c r="F4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="11"/>
+      <c r="F5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="11"/>
+      <c r="F6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="11"/>
+      <c r="F7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="11"/>
+      <c r="F8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="11"/>
+      <c r="F9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="11"/>
+      <c r="F10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="11"/>
+      <c r="F11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="11"/>
+      <c r="F12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="11"/>
+      <c r="F13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="11"/>
+      <c r="F14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="11"/>
+      <c r="F15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="11"/>
+      <c r="F16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="11"/>
+      <c r="F17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="11"/>
+      <c r="F18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="11"/>
+      <c r="F19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="11"/>
+      <c r="F20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="11"/>
+      <c r="F21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="11"/>
+      <c r="F22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="11"/>
+      <c r="F23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="11"/>
+      <c r="F24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="11"/>
+      <c r="F25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="11"/>
+      <c r="F26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="11"/>
+      <c r="F27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="11"/>
+      <c r="F28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="11"/>
+      <c r="F29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="11"/>
+      <c r="F30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="11"/>
+      <c r="F31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="11"/>
+      <c r="F32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="11"/>
+      <c r="F33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="11"/>
+      <c r="F34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="11"/>
+      <c r="F35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="11"/>
+      <c r="F36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="11"/>
+      <c r="F37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="11"/>
+      <c r="F38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="11"/>
+      <c r="F39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="11"/>
+      <c r="F40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="11"/>
+      <c r="F41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="11"/>
+      <c r="F42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="11"/>
+      <c r="F43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="11"/>
+      <c r="F44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="11"/>
+      <c r="F45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="11"/>
+      <c r="F46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="11"/>
+      <c r="F47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="11"/>
+      <c r="F48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="11"/>
+      <c r="F49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="11"/>
+      <c r="F50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="11"/>
+      <c r="F51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="11"/>
+      <c r="F52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="11"/>
+      <c r="F53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="11"/>
+      <c r="F54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="11"/>
+      <c r="F55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="11"/>
+      <c r="F56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="11"/>
+      <c r="F57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="11"/>
+      <c r="F58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="11"/>
+      <c r="F59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="11"/>
+      <c r="F60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="11"/>
+      <c r="F61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="11"/>
+      <c r="F62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="11"/>
+      <c r="F63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="11"/>
+      <c r="F64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="11"/>
+      <c r="F65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="11"/>
+      <c r="F66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="11"/>
+      <c r="F67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="11"/>
+      <c r="F68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="11"/>
+      <c r="F69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M1" xr:uid="{3D1E7AA2-1D8A-4293-86A7-0A84B3029952}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{59A25168-B591-4769-9CD8-63CAB35D2622}">
+          <x14:formula1>
+            <xm:f>Hoja2!$E$2:$E$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D70</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{186B6D06-B32C-454F-ACD7-28CAE8525761}">
+          <x14:formula1>
+            <xm:f>Hoja1!$E$2:$E$100</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A70</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0AB12788-E042-4365-B5B5-F823BDAB8001}">
+          <x14:formula1>
+            <xm:f>Hoja2!$F$2:$F$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I70</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D55F0AB7-F426-4FE6-B211-8205262A8862}">
+          <x14:formula1>
+            <xm:f>Hoja2!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E70 K2:K70</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A90675E-5494-4E98-A2A0-37464F62B976}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:I70"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I1" xr:uid="{2A90675E-5494-4E98-A2A0-37464F62B976}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{839F3D44-579C-415C-870D-067F6C8347AD}">
+          <x14:formula1>
+            <xm:f>Hoja1!$E$2:$E$100</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A70</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{21AF925C-1EBC-47F5-8142-32418F0E68B8}">
+          <x14:formula1>
+            <xm:f>FL!$J$2:$J$70</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B70</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B366FB4B-2806-4B5B-B74D-FC70A2598502}">
+          <x14:formula1>
+            <xm:f>Hoja2!$F$2:$F$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F70</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7593A6-1E34-4F17-B416-7D8DC82F711C}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{0A7593A6-1E34-4F17-B416-7D8DC82F711C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>